--- a/gs170_Contacts&Opportunities.xlsx
+++ b/gs170_Contacts&Opportunities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muc\Desktop\uc\GS170\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB15CBB-3010-45BA-9DDE-BA07C2632877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756482DB-6F2D-4292-A350-C7136021928A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Employer</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>4: Submitted</t>
-  </si>
-  <si>
-    <t>Sofia Velez</t>
   </si>
   <si>
     <t>Employers, Contacts and Job Opportunities</t>
@@ -258,6 +255,18 @@
   </si>
   <si>
     <t>Marcos Rafael Uc Samos</t>
+  </si>
+  <si>
+    <t>David Solano</t>
+  </si>
+  <si>
+    <t>*Arranged a meeting</t>
+  </si>
+  <si>
+    <t>Antonio Cancino</t>
+  </si>
+  <si>
+    <t>Pedro Junco Roa</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1162,7 @@
   <dimension ref="A1:H205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1169,13 +1178,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="D1" s="16">
         <v>44579</v>
@@ -1189,7 +1198,7 @@
     <row r="3" spans="1:8" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:8" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -1198,10 +1207,10 @@
     </row>
     <row r="5" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>1</v>
@@ -1212,10 +1221,18 @@
       <c r="E5" s="52"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="43"/>
+      <c r="A6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="21">
+        <v>6642860981</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>50</v>
+      </c>
       <c r="E6" s="44"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1249,7 +1266,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -1264,25 +1281,25 @@
         <v>0</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="32" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>23</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="34" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1290,30 +1307,32 @@
         <v>5</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="B15" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="C15" s="23"/>
       <c r="D15" s="25"/>
       <c r="E15" s="24"/>
@@ -3235,7 +3254,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Variables!$A$2:$A$6</xm:f>
@@ -3293,18 +3312,18 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -3313,13 +3332,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3336,15 +3355,15 @@
         <v>9</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -3353,38 +3372,38 @@
         <v>15</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="37"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="38"/>
       <c r="E7" s="4"/>
